--- a/mixs-templates/Misag_plus_combinations/MisagMicrobialMatBiofilm.xlsx
+++ b/mixs-templates/Misag_plus_combinations/MisagMicrobialMatBiofilm.xlsx
@@ -1029,7 +1029,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="10">
+  <dataValidations count="11">
     <dataValidation sqref="G2:G1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"contigs,reads"</formula1>
     </dataValidation>
@@ -1038,6 +1038,9 @@
     </dataValidation>
     <dataValidation sqref="Z2:Z1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"other,paired,single,vector"</formula1>
+    </dataValidation>
+    <dataValidation sqref="AB2:AB1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Finished genome,High-quality draft genome,Medium-quality draft genome,Low-quality draft genome,Genome fragment(s)"</formula1>
     </dataValidation>
     <dataValidation sqref="AG2:AG1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DNA-free PCR mix,distilled water,empty collection device,empty collection tube,phosphate buffer,sterile swab,sterile syringe"</formula1>
